--- a/Fall-Semester/ANLT600/Formulas.xlsx
+++ b/Fall-Semester/ANLT600/Formulas.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/Documents/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4199786B-0F72-DD45-96A2-154B632D2385}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="4" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="2" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
   </bookViews>
   <sheets>
-    <sheet name="CompoundAmt" sheetId="1" r:id="rId1"/>
-    <sheet name="FindPresentValue" sheetId="2" r:id="rId2"/>
-    <sheet name="Review" sheetId="3" r:id="rId3"/>
-    <sheet name="Cost" sheetId="4" r:id="rId4"/>
-    <sheet name="Net Income Using TR&amp;TC" sheetId="5" r:id="rId5"/>
+    <sheet name="SimpleInterest" sheetId="6" r:id="rId1"/>
+    <sheet name="PV@SimpleI" sheetId="7" r:id="rId2"/>
+    <sheet name="PV@I-BearingDebt" sheetId="8" r:id="rId3"/>
+    <sheet name="CompoundAmt" sheetId="1" r:id="rId4"/>
+    <sheet name="FindPresentValue" sheetId="2" r:id="rId5"/>
+    <sheet name="Review" sheetId="3" r:id="rId6"/>
+    <sheet name="Cost" sheetId="4" r:id="rId7"/>
+    <sheet name="Net Income Using TR&amp;TC" sheetId="5" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>S</t>
   </si>
@@ -163,6 +166,63 @@
   </si>
   <si>
     <t>E3</t>
+  </si>
+  <si>
+    <t>I = Prt</t>
+  </si>
+  <si>
+    <t>S = P + I</t>
+  </si>
+  <si>
+    <t>S = P(1 + rt)</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>E5_a</t>
+  </si>
+  <si>
+    <t>E5_b</t>
+  </si>
+  <si>
+    <t>E6_a</t>
+  </si>
+  <si>
+    <t>E6_b</t>
+  </si>
+  <si>
+    <t>E7_a</t>
+  </si>
+  <si>
+    <t>E7_b</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>S = P(1+rt)</t>
+  </si>
+  <si>
+    <t>P = S / (1+rt)</t>
+  </si>
+  <si>
+    <t>P = S * (1+rt)^-1</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>S = P (1+rt)</t>
+  </si>
+  <si>
+    <t>P20</t>
   </si>
 </sst>
 </file>
@@ -215,10 +275,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -553,11 +615,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423573E2-B94F-3A47-86E1-5302CDE5720F}">
+  <dimension ref="A2:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>5000</v>
+      </c>
+      <c r="D7">
+        <v>0.04</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>C7*D7*E7</f>
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <f>C7*(1+D7*E7)</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>4000</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <f>F8/(C8*D8)</f>
+        <v>0.75</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>1100</v>
+      </c>
+      <c r="D10">
+        <v>0.05</v>
+      </c>
+      <c r="E10">
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F10">
+        <f>C10*D10*E10</f>
+        <v>22.916666666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>3500</v>
+      </c>
+      <c r="D11">
+        <f>F11/(C11*E11)</f>
+        <v>0.04</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <f>F12/(D12*E12)</f>
+        <v>37000.000000000007</v>
+      </c>
+      <c r="D12">
+        <v>0.06</v>
+      </c>
+      <c r="E12">
+        <f>11/12</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F12">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>95000</v>
+      </c>
+      <c r="D13">
+        <v>0.05</v>
+      </c>
+      <c r="E13">
+        <f>F13/(C13*D13)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F13">
+        <v>1187.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>15000</v>
+      </c>
+      <c r="D14">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="E14">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F14">
+        <f>C14*D14*E14</f>
+        <v>362.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>15000</v>
+      </c>
+      <c r="D15">
+        <v>0.08</v>
+      </c>
+      <c r="E15">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15">
+        <f>C15*D15*E15</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>8000</v>
+      </c>
+      <c r="D16">
+        <v>0.125</v>
+      </c>
+      <c r="E16">
+        <f>7/12</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G16">
+        <f>C16*(1+D16*E16)</f>
+        <v>8583.3333333333339</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>8000</v>
+      </c>
+      <c r="D17">
+        <v>0.125</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <f>C17*(1+D17*E17)</f>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <f>F18/(D18*E18)</f>
+        <v>1297.2972972972973</v>
+      </c>
+      <c r="D18">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <f>F19/(D19*E19)</f>
+        <v>15000</v>
+      </c>
+      <c r="D19">
+        <v>0.08</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>20000</v>
+      </c>
+      <c r="D20">
+        <f>F20/(C20*E20)</f>
+        <v>0.09</v>
+      </c>
+      <c r="E20">
+        <f>10/12</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F20">
+        <f>G20-C20</f>
+        <v>1500</v>
+      </c>
+      <c r="G20">
+        <v>21500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BB1A90-F443-3640-9480-EF2BA312A7C9}">
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>4000</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="2">
+        <f>_xlfn.DAYS(I6,J6)/365</f>
+        <v>0.61643835616438358</v>
+      </c>
+      <c r="G6">
+        <f>C6/(1+D6*E6)</f>
+        <v>3880.3986710963454</v>
+      </c>
+      <c r="I6" s="4">
+        <v>44457</v>
+      </c>
+      <c r="J6" s="4">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>5000</v>
+      </c>
+      <c r="D7">
+        <v>0.08</v>
+      </c>
+      <c r="E7">
+        <f>7/12</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G7">
+        <f>C7/(1+D7*E7)</f>
+        <v>4777.0700636942674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3000</v>
+      </c>
+      <c r="D9">
+        <v>0.12</v>
+      </c>
+      <c r="E9">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G9">
+        <f>C9/(1+D9*E9)</f>
+        <v>2884.6153846153843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>20000</v>
+      </c>
+      <c r="D10">
+        <v>0.08</v>
+      </c>
+      <c r="E10" s="2">
+        <f>_xlfn.DAYS(I10,J10)/365</f>
+        <v>0.15342465753424658</v>
+      </c>
+      <c r="G10">
+        <f>C10/(1+D10*E10)</f>
+        <v>19757.497022842916</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45606</v>
+      </c>
+      <c r="J10" s="3">
+        <v>45550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2500</v>
+      </c>
+      <c r="D11">
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="2">
+        <f>_xlfn.DAYS(I11,J11)/365</f>
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="G11">
+        <f>C11/(1+D11*E11)</f>
+        <v>2434.9566377585056</v>
+      </c>
+      <c r="I11" s="4">
+        <v>42592</v>
+      </c>
+      <c r="J11" s="4">
+        <v>42527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2209B0-EE1C-8544-A1EA-835DA9649317}">
+  <dimension ref="A2:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>15000</v>
+      </c>
+      <c r="D5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E5">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5">
+        <f>C5*(1+D5*E5)</f>
+        <v>15425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0.06</v>
+      </c>
+      <c r="E6">
+        <f>4/12</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6">
+        <f>G5/(1+D6*E6)</f>
+        <v>15122.549019607843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8">
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f>C8*(1+D8*E8)</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0.08</v>
+      </c>
+      <c r="E9">
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H9">
+        <f>G8/(1+D9*E9)</f>
+        <v>5806.4516129032254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>12500</v>
+      </c>
+      <c r="D11">
+        <v>0.24</v>
+      </c>
+      <c r="E11">
+        <f>90/365</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="G11">
+        <f>C11*(1+D11*E11)</f>
+        <v>13239.726027397261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
+        <f>60/365</f>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="H12">
+        <f>G11/(1+D12*E12)</f>
+        <v>13025.606469002696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>850</v>
+      </c>
+      <c r="D14">
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>C14*(1+D14*E14)</f>
+        <v>1062.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0.35</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>G14/(1+D15*E15)</f>
+        <v>787.03703703703695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6000</v>
+      </c>
+      <c r="D17">
+        <v>0.06</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <f>C17*(1+D17*E17)</f>
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0.05</v>
+      </c>
+      <c r="E18">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H18">
+        <f>G17/(1+D18*E18)</f>
+        <v>6154.3568464730288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="D19">
+        <v>0.15</v>
+      </c>
+      <c r="E19">
+        <f>10/12</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G19">
+        <f>C19*(1+D19*E19)</f>
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>5500</v>
+      </c>
+      <c r="D21">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E21">
+        <f>8/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G21">
+        <f>C21*(1+D21*E21)</f>
+        <v>6031.666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>5500</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22">
+        <f>8/12</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G22">
+        <f>C22*(1+D22*E22)</f>
+        <v>6233.333333333333</v>
+      </c>
+      <c r="H22">
+        <f>G22-G21</f>
+        <v>201.66666666666606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>20000</v>
+      </c>
+      <c r="D23">
+        <v>0.08</v>
+      </c>
+      <c r="E23">
+        <f>180/365</f>
+        <v>0.49315068493150682</v>
+      </c>
+      <c r="G23">
+        <f>C23*(1+D23*E23)</f>
+        <v>20789.04109589041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0.06</v>
+      </c>
+      <c r="E24" s="2">
+        <f>_xlfn.DAYS(J24,K24)/365</f>
+        <v>0.18356164383561643</v>
+      </c>
+      <c r="H24">
+        <f>G23/(1+D24*E24)</f>
+        <v>20562.571134355861</v>
+      </c>
+      <c r="J24" s="4">
+        <v>42685</v>
+      </c>
+      <c r="K24" s="4">
+        <v>42618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F7906C-947A-4440-A398-6A7705D2FFA0}">
   <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -803,7 +1604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B08FA02-95C2-B344-A079-E876CD2CF0CD}">
   <dimension ref="A2:G17"/>
   <sheetViews>
@@ -973,7 +1774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0E484A-AD42-7F40-B7FA-6AB99781CD2F}">
   <dimension ref="A2:H15"/>
   <sheetViews>
@@ -1127,7 +1928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9271A999-3EE4-1A49-8821-5B7514BE5F5A}">
   <dimension ref="A2:H6"/>
   <sheetViews>
@@ -1201,11 +2002,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10788039-FC06-CA43-BA9A-6C028FD0C0E2}">
   <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>

--- a/Fall-Semester/ANLT600/Formulas.xlsx
+++ b/Fall-Semester/ANLT600/Formulas.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4199786B-0F72-DD45-96A2-154B632D2385}"/>
+  <xr:revisionPtr revIDLastSave="675" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25C96FEC-BDE3-804E-BA59-2866A63E3B79}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="2" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="6" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleInterest" sheetId="6" r:id="rId1"/>
     <sheet name="PV@SimpleI" sheetId="7" r:id="rId2"/>
     <sheet name="PV@I-BearingDebt" sheetId="8" r:id="rId3"/>
     <sheet name="CompoundAmt" sheetId="1" r:id="rId4"/>
-    <sheet name="FindPresentValue" sheetId="2" r:id="rId5"/>
-    <sheet name="Review" sheetId="3" r:id="rId6"/>
-    <sheet name="Cost" sheetId="4" r:id="rId7"/>
-    <sheet name="Net Income Using TR&amp;TC" sheetId="5" r:id="rId8"/>
+    <sheet name="CompoundAmt@ChangingRate" sheetId="9" r:id="rId5"/>
+    <sheet name="PV@CompoundAmt" sheetId="2" r:id="rId6"/>
+    <sheet name="Review" sheetId="3" r:id="rId7"/>
+    <sheet name="Cost" sheetId="4" r:id="rId8"/>
+    <sheet name="Net Income Using TR&amp;TC" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>S</t>
   </si>
@@ -81,42 +82,24 @@
     <t>Sc</t>
   </si>
   <si>
-    <t>FV</t>
-  </si>
-  <si>
     <t>PV</t>
   </si>
   <si>
-    <t>P = S(1+i)^-n</t>
-  </si>
-  <si>
     <t>E4</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>i=Prt</t>
-  </si>
-  <si>
     <t>3 months</t>
   </si>
   <si>
-    <t>PV=S(1+rt)^-1</t>
-  </si>
-  <si>
     <t>E10</t>
   </si>
   <si>
     <t>E13</t>
   </si>
   <si>
-    <t>PV=S(1+r/csa)^-n</t>
-  </si>
-  <si>
-    <t>n=csa*t</t>
-  </si>
-  <si>
     <t>UVC</t>
   </si>
   <si>
@@ -223,6 +206,39 @@
   </si>
   <si>
     <t>P20</t>
+  </si>
+  <si>
+    <t>S=P(1+i)^n</t>
+  </si>
+  <si>
+    <t>Sd</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>S = P(1+i)^n</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>P33</t>
   </si>
 </sst>
 </file>
@@ -297,6 +313,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,17 +646,17 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -650,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -692,10 +712,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1100</v>
@@ -714,7 +734,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>3500</v>
@@ -732,7 +752,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <f>F12/(D12*E12)</f>
@@ -751,7 +771,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>95000</v>
@@ -769,7 +789,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>15000</v>
@@ -788,7 +808,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>15000</v>
@@ -807,7 +827,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>8000</v>
@@ -826,7 +846,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>8000</v>
@@ -844,7 +864,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <f>F18/(D18*E18)</f>
@@ -862,7 +882,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <f>F19/(D19*E19)</f>
@@ -880,7 +900,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>20000</v>
@@ -918,15 +938,15 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -940,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -986,7 +1006,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1065,15 +1085,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2209B0-EE1C-8544-A1EA-835DA9649317}">
   <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1087,13 +1107,13 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1211,7 +1231,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1355,19 +1375,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F7906C-947A-4440-A398-6A7705D2FFA0}">
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="11" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1383,7 +1403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1399,205 +1419,593 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J9" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <f>B8*(1+(D8/F8))^(F8*E8)</f>
-        <v>112550.88099999999</v>
-      </c>
-      <c r="B8">
-        <v>100000</v>
-      </c>
-      <c r="D8">
-        <v>0.06</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <f>FindPresentValue!B10*A9*A10</f>
-        <v>871717398963992.62</v>
-      </c>
-      <c r="I8" s="1">
-        <f>A11*A12*A13</f>
-        <v>2080744619416121</v>
-      </c>
-      <c r="J8" s="1">
-        <f>A14*A15*A16</f>
-        <v>1836251861014786.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <f t="shared" ref="A9:A16" si="0">B9*(1+(D9/F9))^(F9*E9)</f>
-        <v>134488.88242462976</v>
-      </c>
-      <c r="B9">
-        <v>100000</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>134735.10504143508</v>
-      </c>
-      <c r="B10">
-        <v>100000</v>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>6000</v>
       </c>
       <c r="D10">
         <v>0.15</v>
       </c>
       <c r="E10">
+        <f>D10/1</f>
+        <v>0.15</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f>F10*1</f>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f>C10*(1+E10)^G10</f>
+        <v>18354.137175234362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>6000</v>
+      </c>
+      <c r="D11">
+        <v>0.15</v>
+      </c>
+      <c r="E11">
+        <f>D11/2</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <f>F11*2</f>
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <f>C11*(1+E11)^G11</f>
+        <v>19084.758925621216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>6000</v>
+      </c>
+      <c r="D12">
+        <v>0.15</v>
+      </c>
+      <c r="E12">
+        <f>D12/4</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f>F12*4</f>
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <f>C12*(1+E12)^G12</f>
+        <v>19488.150401704977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>6000</v>
+      </c>
+      <c r="D13">
+        <v>0.15</v>
+      </c>
+      <c r="E13">
+        <f>D13/12</f>
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f>F13*12</f>
+        <v>96</v>
+      </c>
+      <c r="H13">
+        <f>C13*(1+E13)^G13</f>
+        <v>19773.079455010957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f>H15/(1+E15)^G15</f>
+        <v>6408.1647167554256</v>
+      </c>
+      <c r="D15">
+        <v>0.09</v>
+      </c>
+      <c r="E15">
+        <f>D15/4</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <f>5*4</f>
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C18">
+        <v>5000</v>
+      </c>
+      <c r="D18">
+        <v>0.08</v>
+      </c>
+      <c r="E18">
+        <f>D18/12</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.5</v>
+      </c>
+      <c r="G18">
+        <f>F18*12</f>
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <f>C18*(1+E18)^G18</f>
+        <v>5635.23968350205</v>
+      </c>
+      <c r="I18">
+        <f>E18</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="L18">
+        <f>G18</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1.2</v>
+      </c>
+      <c r="C19">
+        <v>25000</v>
+      </c>
+      <c r="D19">
+        <v>0.875</v>
+      </c>
+      <c r="E19">
+        <f>D19/4</f>
+        <v>0.21875</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f>F19*4</f>
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H21" si="0">C19*(1+E19)^G19</f>
+        <v>121690.60165617793</v>
+      </c>
+      <c r="I19">
+        <f>E19</f>
+        <v>0.21875</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <f>G19</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1.3</v>
+      </c>
+      <c r="C20">
+        <v>52000</v>
+      </c>
+      <c r="D20">
+        <v>0.09</v>
+      </c>
+      <c r="E20">
+        <f>D20/2</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F20">
+        <v>2.25</v>
+      </c>
+      <c r="G20">
+        <f>F20*2</f>
+        <v>4.5</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
+        <v>63390.861010717825</v>
+      </c>
+      <c r="I20">
+        <f>E20</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <f>G20</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1.4</v>
+      </c>
+      <c r="C21">
+        <v>4000</v>
+      </c>
+      <c r="D21">
+        <v>0.11</v>
+      </c>
+      <c r="E21">
+        <f>D21/1</f>
+        <v>0.11</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f>F21*1</f>
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>6072.281640000002</v>
+      </c>
+      <c r="I21">
+        <f>E21</f>
+        <v>0.11</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f>G21</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <f>H22/(1+E22)^G22</f>
+        <v>3720.4695744836258</v>
+      </c>
+      <c r="D22">
+        <v>0.06</v>
+      </c>
+      <c r="E22">
+        <f>D22/2</f>
+        <v>0.03</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <f>F22*2</f>
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>2000</v>
+      </c>
+      <c r="D23">
+        <v>0.08</v>
+      </c>
+      <c r="E23">
+        <f>D23/1</f>
+        <v>0.08</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <f>F23*1</f>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <f>C23*(1+E23)^G23</f>
+        <v>4317.8499945455751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>H24/(1+E24)^G24</f>
+        <v>5402.6888450197575</v>
+      </c>
+      <c r="D24">
+        <v>0.08</v>
+      </c>
+      <c r="E24">
+        <f>D24/1</f>
+        <v>0.08</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <f>F24*1</f>
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>10000</v>
+      </c>
+      <c r="I24">
+        <f>C24-H23</f>
+        <v>1084.8388504741824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>100000</v>
+      </c>
+      <c r="E27">
+        <v>0.06</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <f>C27*(1+(E27/G27))^(G27*F27)</f>
+        <v>112550.88099999999</v>
+      </c>
+      <c r="I27" s="1" t="e">
+        <f>'PV@CompoundAmt'!#REF!*H28*H29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J27" s="1">
+        <f>H30*H31*H32</f>
+        <v>2080744619416121</v>
+      </c>
+      <c r="K27" s="1">
+        <f>H33*H34*H35</f>
+        <v>1836251861014786.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>100000</v>
+      </c>
+      <c r="E28">
+        <v>0.1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2">
+        <f>C28*(1+(E28/G28))^(G28*F28)</f>
+        <v>134488.88242462976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>100000</v>
+      </c>
+      <c r="E29">
+        <v>0.15</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2">
+        <f>C29*(1+(E29/G29))^(G29*F29)</f>
+        <v>134735.10504143508</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>100000</v>
+      </c>
+      <c r="E30">
+        <v>0.08</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <f>C30*(1+(E30/G30))^(G30*F30)</f>
         <v>126531.90184960004</v>
       </c>
-      <c r="B11">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C31">
         <v>100000</v>
       </c>
-      <c r="D11">
+      <c r="E31">
+        <v>0.12</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2">
+        <f>C31*(1+(E31/G31))^(G31*F31)</f>
+        <v>143076.87835915809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>100000</v>
+      </c>
+      <c r="E32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2">
+        <f>C32*(1+(E32/G32))^(G32*F32)</f>
+        <v>114934.20292071576</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>100000</v>
+      </c>
+      <c r="E33">
+        <v>0.06</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <f>C33*(1+(E33/G33))^(G33*F33)</f>
+        <v>112360.00000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>100000</v>
+      </c>
+      <c r="E34">
         <v>0.08</v>
       </c>
-      <c r="E11">
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="G34">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>143076.87835915809</v>
-      </c>
-      <c r="B12">
+      <c r="H34" s="2">
+        <f>C34*(1+(E34/G34))^(G34*F34)</f>
+        <v>126531.90184960004</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C35">
         <v>100000</v>
       </c>
-      <c r="D12">
-        <v>0.12</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>114934.20292071576</v>
-      </c>
-      <c r="B13">
-        <v>100000</v>
-      </c>
-      <c r="D13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>112360.00000000001</v>
-      </c>
-      <c r="B14">
-        <v>100000</v>
-      </c>
-      <c r="D14">
-        <v>0.06</v>
-      </c>
-      <c r="E14">
+      <c r="E35">
+        <v>0.13</v>
+      </c>
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>126531.90184960004</v>
-      </c>
-      <c r="B15">
-        <v>100000</v>
-      </c>
-      <c r="D15">
-        <v>0.08</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <f t="shared" si="0"/>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2">
+        <f>C35*(1+(E35/G35))^(G35*F35)</f>
         <v>129157.75352963673</v>
       </c>
-      <c r="B16">
-        <v>100000</v>
-      </c>
-      <c r="D16">
-        <v>0.13</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1605,168 +2013,406 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B08FA02-95C2-B344-A079-E876CD2CF0CD}">
-  <dimension ref="A2:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C27365-6F07-0D44-BA62-0B4EA34C65BA}">
+  <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>0.03</v>
+      </c>
+      <c r="E5">
+        <f>D5/4</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="G5">
+        <f>F5*4</f>
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <f>C5*(1+E5)^G5</f>
+        <v>11611.841423032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>11611.84</v>
+      </c>
+      <c r="D6">
+        <v>0.04</v>
+      </c>
+      <c r="E6">
+        <f>D6/2</f>
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f>F6*2</f>
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <f>C6*(1+E6)^G6</f>
+        <v>15940.567961799372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f>H6-C5</f>
+        <v>5940.5679617993719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>20000</v>
+      </c>
+      <c r="D9">
+        <v>0.09</v>
+      </c>
+      <c r="E9">
+        <f>D9/2</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>F9*2</f>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f>C9*(1+E9)^G9</f>
+        <v>23850.372012499989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>23850.37</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <f>D10/4</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f>F10*4</f>
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <f>C10*(1+E10)^G10</f>
+        <v>32076.096067139166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>32076.1</v>
+      </c>
+      <c r="D11">
+        <v>0.13</v>
+      </c>
+      <c r="E11">
+        <f>D11/12</f>
+        <v>1.0833333333333334E-2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f>F11*12</f>
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <f>C11*(1+E11)^G11</f>
+        <v>53802.219265099862</v>
+      </c>
+      <c r="I11">
+        <f>C9*(1+E9)^G9*(1+E10)^G10*(1+E11)^G11</f>
+        <v>53802.217208236354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f>H11-C9</f>
+        <v>33802.219265099862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C14">
+        <v>11500</v>
+      </c>
+      <c r="D14">
+        <v>0.6</v>
+      </c>
+      <c r="E14">
+        <f>D14/12</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <f>F14*12</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0.8</v>
+      </c>
+      <c r="E15">
+        <f>D15/4</f>
+        <v>0.2</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <f>F15*4</f>
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <f>C14*(1+E14)^G14*(1+E15)^G15</f>
+        <v>8235324.2908234466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16">
+        <v>0.7</v>
+      </c>
+      <c r="F16">
+        <v>4.5</v>
+      </c>
+      <c r="H16">
+        <f>C16*(1+D16)^F16</f>
+        <v>54449.030408493032</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f>H16-C16</f>
+        <v>49449.030408493032</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>100000</v>
+      </c>
+      <c r="D18">
+        <v>0.6</v>
+      </c>
+      <c r="E18">
+        <f>D18/2</f>
+        <v>0.3</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f>F18*2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19">
+        <f>D19/4</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <f>F19*4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0.15</v>
+      </c>
+      <c r="E20">
+        <f>D20/12</f>
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f>F20*12</f>
+        <v>24</v>
+      </c>
+      <c r="H20" s="1">
+        <f>C18*(1+E18)^G18*(1+E19)^G19*(1+E20)^G20</f>
+        <v>517535.99325677328</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>100000</v>
+      </c>
+      <c r="D21">
+        <v>0.08</v>
+      </c>
+      <c r="E21">
+        <f>D21/2</f>
+        <v>0.04</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <f>F21*2</f>
         <v>6</v>
       </c>
-      <c r="B3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>0.12</v>
+      </c>
+      <c r="E22">
+        <f>D22/12</f>
+        <v>0.01</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <f>F22*12</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E23">
+        <f>D23/12</f>
+        <v>1.1666666666666667E-2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1">
+        <f>C21*(1+E21)^G21*(1+E22)^G22*(1+E23)^G23</f>
+        <v>208074.46194161213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>100000</v>
+      </c>
+      <c r="D24">
+        <v>0.06</v>
+      </c>
+      <c r="E24">
+        <v>0.06</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0.08</v>
+      </c>
+      <c r="E25">
+        <f>D25/2</f>
+        <v>0.04</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <f>F25*2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0.13</v>
+      </c>
+      <c r="E26">
+        <f>D26/4</f>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f>F26*4</f>
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <f>C10*(1+(E10/G10))^(G10*F10)</f>
-        <v>48107.032083192717</v>
-      </c>
-      <c r="C10">
-        <v>15000</v>
-      </c>
-      <c r="E10">
-        <v>0.12</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <f t="shared" ref="B11:B12" si="0">C11*(1+(E11/G11))^(G11*F11)</f>
-        <v>30387.247730677995</v>
-      </c>
-      <c r="C11">
-        <v>15000</v>
-      </c>
-      <c r="E11">
-        <v>0.08</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>21194.607314606492</v>
-      </c>
-      <c r="C12">
-        <v>15000</v>
-      </c>
-      <c r="E12">
-        <v>0.05</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>32150.880000000001</v>
-      </c>
-      <c r="B17">
-        <v>0.15</v>
-      </c>
-      <c r="D17">
-        <f>3+(8/12)</f>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f>A17*(1+B17)^(-D17)</f>
-        <v>19259.016999667816</v>
+      <c r="H26" s="1">
+        <f>C24*(1+E24)^G24*(1+E25)^G25*(1+E26)^G26</f>
+        <v>183625.18610147864</v>
       </c>
     </row>
   </sheetData>
@@ -1775,152 +2421,189 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0E484A-AD42-7F40-B7FA-6AB99781CD2F}">
-  <dimension ref="A2:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B08FA02-95C2-B344-A079-E876CD2CF0CD}">
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>4500</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5">
+        <f>D5/2</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G5">
+        <f>F5*2</f>
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <f>C5*(1+E5)^G5</f>
+        <v>6051.9997091083387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>6052</v>
+      </c>
+      <c r="D6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f>C6/(1+D6)^F6</f>
+        <v>4647.3050080594658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <f>D8/2</f>
+        <v>0.45</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <f>F8*2</f>
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <f>C8/(1+E8)^G8</f>
+        <v>5.1174779741990507E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>15000</v>
+      </c>
+      <c r="D10">
+        <v>0.12</v>
+      </c>
+      <c r="E10">
+        <f>D10/2</f>
+        <v>0.06</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f>F10*2</f>
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <f>C10*(1+E10)^G10</f>
+        <v>48107.032083192717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0.08</v>
+      </c>
+      <c r="E11">
+        <f>D11/2</f>
+        <v>0.04</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <f>F11*2</f>
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <f>H10/(1+E11)^G11</f>
+        <v>23746.983854657588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0.05</v>
+      </c>
+      <c r="E12">
+        <f>D12/2</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F12">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>15000</v>
-      </c>
-      <c r="D12">
-        <v>187.5</v>
-      </c>
-      <c r="E12">
-        <v>0.05</v>
-      </c>
-      <c r="F12">
-        <f>D12/(B12*E12)</f>
-        <v>0.25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>15000</v>
-      </c>
-      <c r="E13">
-        <v>0.08</v>
-      </c>
-      <c r="F13">
-        <f>33/365</f>
-        <v>9.0410958904109592E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <f>C13*(1+E13*F13)^(-1)</f>
-        <v>14892.28593188989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f>F12*2</f>
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <f>H10/(1+E12)^G12</f>
+        <v>34046.654912572434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>50000</v>
-      </c>
-      <c r="E14">
-        <v>0.65</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <f>C14*(1+(E14/G14))^(-(G14*F14))</f>
-        <v>2997.8591313845604</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>32150.880000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.15</v>
+      </c>
+      <c r="F15">
+        <f>3+8/12</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="I15">
+        <f>C15/(1+D15)^F15</f>
+        <v>19259.01699966782</v>
       </c>
     </row>
   </sheetData>
@@ -1929,6 +2612,215 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0E484A-AD42-7F40-B7FA-6AB99781CD2F}">
+  <dimension ref="A3:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>15000</v>
+      </c>
+      <c r="E5">
+        <v>187.5</v>
+      </c>
+      <c r="F5">
+        <v>0.05</v>
+      </c>
+      <c r="G5">
+        <f>E5/(C5*F5)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>15000</v>
+      </c>
+      <c r="F6">
+        <v>0.08</v>
+      </c>
+      <c r="G6">
+        <f>33/365</f>
+        <v>9.0410958904109592E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f>D6*(1+F6*G6)^(-1)</f>
+        <v>14892.28593188989</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>50000</v>
+      </c>
+      <c r="F7">
+        <v>0.65</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f>D7*(1+(F7/H7))^(-(H7*G7))</f>
+        <v>2997.8591313845604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>15000</v>
+      </c>
+      <c r="D11">
+        <v>0.05</v>
+      </c>
+      <c r="F11">
+        <f>I11/(C11*D11)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>15000</v>
+      </c>
+      <c r="D12">
+        <v>0.08</v>
+      </c>
+      <c r="F12">
+        <f>3/12</f>
+        <v>0.25</v>
+      </c>
+      <c r="J12">
+        <f>C12/(1+D12*K12)</f>
+        <v>14892.28593188989</v>
+      </c>
+      <c r="K12" s="2">
+        <f>_xlfn.DAYS(L12,M12)/365</f>
+        <v>9.0410958904109592E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>45598</v>
+      </c>
+      <c r="M12" s="3">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f>H13/(1+E13)^G13</f>
+        <v>36313.607994271159</v>
+      </c>
+      <c r="D13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E13">
+        <f>D13/2</f>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <f>F13*2</f>
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9271A999-3EE4-1A49-8821-5B7514BE5F5A}">
   <dimension ref="A2:H6"/>
   <sheetViews>
@@ -1940,21 +2832,21 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1978,7 +2870,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <f>214.48+186.67+166.88+13+20+27+10</f>
@@ -2002,7 +2894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10788039-FC06-CA43-BA9A-6C028FD0C0E2}">
   <dimension ref="A2:I13"/>
   <sheetViews>
@@ -2014,42 +2906,42 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2064,7 +2956,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2085,15 +2977,15 @@
         <v>13000</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>430</v>
@@ -2114,7 +3006,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>430</v>
@@ -2132,7 +3024,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Fall-Semester/ANLT600/Formulas.xlsx
+++ b/Fall-Semester/ANLT600/Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="868" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF37982-E0A2-C94A-B65C-CF51B261B2A3}"/>
+  <xr:revisionPtr revIDLastSave="870" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD9FA47-38EC-A840-B931-D28C2F3421D0}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="4" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="5" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="LO1" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="LO1-2 Review" sheetId="3" r:id="rId3"/>
     <sheet name="LO3" sheetId="4" r:id="rId4"/>
     <sheet name="LO7" sheetId="11" r:id="rId5"/>
+    <sheet name="L04" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3491,7 +3492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA996D-A764-1B4D-974B-C65FDC8E7FD1}">
   <dimension ref="C2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3510,4 +3511,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D22418-BE1C-7E42-B148-9DFF26F1B105}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fall-Semester/ANLT600/Formulas.xlsx
+++ b/Fall-Semester/ANLT600/Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="870" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD9FA47-38EC-A840-B931-D28C2F3421D0}"/>
+  <xr:revisionPtr revIDLastSave="953" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72DDC447-213C-C245-B0CE-163CEE83D915}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="5" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="3" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="LO1" sheetId="6" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>Net Income Using TR&amp;TC</t>
   </si>
   <si>
-    <t>Contribution Rates</t>
-  </si>
-  <si>
     <t>NI = TR - TVC - TFC</t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>Seasonality</t>
+  </si>
+  <si>
+    <t>Contribution Margin</t>
   </si>
 </sst>
 </file>
@@ -2918,10 +2918,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9271A999-3EE4-1A49-8821-5B7514BE5F5A}">
-  <dimension ref="A2:K60"/>
+  <dimension ref="A2:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3016,319 +3016,335 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
         <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>10000</v>
-      </c>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>1000</v>
       </c>
-      <c r="G17">
-        <f>C17/D17</f>
+      <c r="E17">
+        <f>F17/D17</f>
         <v>10</v>
+      </c>
+      <c r="F17">
+        <v>10000</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C18">
-        <v>10000</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>1200</v>
       </c>
       <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="G18">
         <v>5000</v>
       </c>
-      <c r="F18">
-        <v>25</v>
-      </c>
       <c r="H18">
-        <f>(D18*F18)-(E18+(D18*G17))</f>
+        <f>(D18*C18) - (G18+(D18*E18))</f>
         <v>13000</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>430</v>
+      </c>
+      <c r="E19">
+        <v>6.43</v>
+      </c>
+      <c r="F19">
+        <f>D19*E19</f>
+        <v>2764.9</v>
+      </c>
+      <c r="G19">
+        <v>638.03</v>
+      </c>
+      <c r="H19">
+        <f>(C19*D19) - (G19+F19)</f>
+        <v>897.06999999999971</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
       </c>
       <c r="D20">
         <v>430</v>
       </c>
-      <c r="E20">
+      <c r="F20">
+        <f>364.9+(35.38*80)</f>
+        <v>3195.3</v>
+      </c>
+      <c r="G20">
         <v>638.03</v>
       </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>6.43</v>
-      </c>
       <c r="H20">
-        <f>(D20*F20) - (E20 + (D20*G20))</f>
-        <v>897.06999999999971</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(C20*D20)-(F20+G20)</f>
+        <v>466.67000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21">
-        <v>430</v>
-      </c>
-      <c r="E21">
-        <v>638.03</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <f>364.9+80*35.38</f>
-        <v>3195.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="5" t="s">
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="E25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" s="5"/>
       <c r="E26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
       <c r="C27" s="5"/>
-      <c r="E27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>84</v>
-      </c>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="5"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" t="s">
-        <v>80</v>
+      <c r="C33">
+        <v>5000</v>
+      </c>
+      <c r="D33">
+        <v>6600</v>
+      </c>
+      <c r="E33" s="6">
+        <f>D33/H33</f>
+        <v>5.5</v>
+      </c>
+      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="G33" s="6">
+        <f>H33*F33</f>
+        <v>15600</v>
+      </c>
+      <c r="H33" s="6">
+        <f>(I33+C33)/K33</f>
+        <v>1200</v>
+      </c>
+      <c r="I33">
+        <v>4000</v>
+      </c>
+      <c r="J33" s="6">
+        <f>(K33/F33)*1</f>
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="K33">
+        <v>7.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C34">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="7">
+        <f>E34*H34</f>
         <v>5000</v>
       </c>
-      <c r="D34">
-        <v>6600</v>
-      </c>
-      <c r="E34" s="6">
-        <f>D34/H34</f>
-        <v>5.5</v>
+      <c r="E34">
+        <v>5</v>
       </c>
       <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="7">
+        <f>G34/F34</f>
+        <v>1000</v>
+      </c>
+      <c r="I34" s="7">
+        <f>H34*K34-C34</f>
+        <v>3000</v>
+      </c>
+      <c r="J34" s="7">
+        <f>(K34/F34)*1</f>
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="7">
+        <f>F34-E34</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C37" s="8">
+        <f>(H37*K37) - I37</f>
+        <v>21000</v>
+      </c>
+      <c r="D37" s="8">
+        <f>G37-I37-C37</f>
+        <v>39000</v>
+      </c>
+      <c r="E37" s="8">
+        <f>D37/H37</f>
         <v>13</v>
       </c>
-      <c r="G34" s="6">
-        <f>H34*F34</f>
-        <v>15600</v>
-      </c>
-      <c r="H34" s="6">
-        <f>(I34+C34)/K34</f>
-        <v>1200</v>
-      </c>
-      <c r="I34">
-        <v>4000</v>
-      </c>
-      <c r="J34" s="6">
-        <f>(K34/F34)*1</f>
-        <v>0.57692307692307687</v>
-      </c>
-      <c r="K34">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C35">
-        <v>2000</v>
-      </c>
-      <c r="D35" s="7">
-        <f>E35*H35</f>
-        <v>5000</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>10000</v>
-      </c>
-      <c r="H35" s="7">
-        <f>G35/F35</f>
-        <v>1000</v>
-      </c>
-      <c r="I35" s="7">
-        <f>H35*K35-C35</f>
+      <c r="F37" s="8">
+        <f>G37/H37</f>
+        <v>26</v>
+      </c>
+      <c r="G37">
+        <v>78000</v>
+      </c>
+      <c r="H37">
         <v>3000</v>
       </c>
-      <c r="J35" s="7">
-        <f>(K35/F35)*1</f>
+      <c r="I37">
+        <v>18000</v>
+      </c>
+      <c r="J37" s="8">
+        <f>(K37/F37)*1</f>
         <v>0.5</v>
       </c>
-      <c r="K35" s="7">
-        <f>F35-E35</f>
-        <v>5</v>
+      <c r="K37">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C38" s="8">
-        <f>(H38*K38) - I38</f>
-        <v>21000</v>
-      </c>
-      <c r="D38" s="8">
-        <f>G38-I38-C38</f>
-        <v>39000</v>
-      </c>
-      <c r="E38" s="8">
-        <f>D38/H38</f>
-        <v>13</v>
-      </c>
-      <c r="F38" s="8">
-        <f>G38/H38</f>
-        <v>26</v>
-      </c>
-      <c r="G38">
-        <v>78000</v>
-      </c>
-      <c r="H38">
-        <v>3000</v>
+      <c r="C38" s="9"/>
+      <c r="D38">
+        <v>94050</v>
+      </c>
+      <c r="E38">
+        <v>75.239999999999995</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9">
+        <f>D38/E38</f>
+        <v>1250</v>
       </c>
       <c r="I38">
-        <v>18000</v>
-      </c>
-      <c r="J38" s="8">
-        <f>(K38/F38)*1</f>
-        <v>0.5</v>
-      </c>
-      <c r="K38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C39" s="9"/>
-      <c r="D39">
-        <v>94050</v>
-      </c>
-      <c r="E39">
-        <v>75.239999999999995</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9">
-        <f>D39/E39</f>
-        <v>1250</v>
-      </c>
-      <c r="I39">
         <v>-19500</v>
       </c>
-      <c r="J39">
+      <c r="J38">
         <v>0.38</v>
       </c>
-      <c r="K39" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C42" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -3336,44 +3352,58 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>86</v>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" t="s">
-        <v>80</v>
+      <c r="C46">
+        <v>3000</v>
+      </c>
+      <c r="E46">
+        <v>2.5</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <f>C46/K46</f>
+        <v>1200</v>
+      </c>
+      <c r="K46">
+        <f>F46-E46</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C47">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E47">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="H47">
         <f>C47/K47</f>
-        <v>1200</v>
+        <v>917.43119266055055</v>
       </c>
       <c r="K47">
         <f>F47-E47</f>
-        <v>2.5</v>
+        <v>5.4499999999999993</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3384,102 +3414,83 @@
         <v>4.5</v>
       </c>
       <c r="F48">
-        <v>9.9499999999999993</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="H48">
         <f>C48/K48</f>
-        <v>917.43119266055055</v>
+        <v>1123.5955056179778</v>
       </c>
       <c r="K48">
         <f>F48-E48</f>
-        <v>5.4499999999999993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C49">
-        <v>5000</v>
-      </c>
-      <c r="E49">
-        <v>4.5</v>
-      </c>
-      <c r="F49">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="H49">
-        <f>C49/K49</f>
-        <v>1123.5955056179778</v>
-      </c>
-      <c r="K49">
-        <f>F49-E49</f>
         <v>4.4499999999999993</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C52" s="5" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C51" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D54" t="s">
         <v>20</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E54" t="s">
         <v>18</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F54" t="s">
         <v>0</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H54" t="s">
         <v>24</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C56">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C55">
         <f>865+135+500</f>
         <v>1500</v>
       </c>
-      <c r="D56">
-        <f>E56*H56</f>
+      <c r="D55">
+        <f>E55*H55</f>
         <v>3000</v>
       </c>
-      <c r="E56">
+      <c r="E55">
         <v>10</v>
       </c>
-      <c r="F56">
-        <f>(C56+D56+I56)/H56</f>
+      <c r="F55">
+        <f>(C55+D55+I55)/H55</f>
         <v>25</v>
       </c>
-      <c r="H56">
+      <c r="H55">
         <v>300</v>
       </c>
-      <c r="I56">
+      <c r="I55">
         <v>3000</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C59" s="5" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C58" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3500,12 +3511,12 @@
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3517,7 +3528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D22418-BE1C-7E42-B148-9DFF26F1B105}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Fall-Semester/ANLT600/Formulas.xlsx
+++ b/Fall-Semester/ANLT600/Formulas.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="953" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72DDC447-213C-C245-B0CE-163CEE83D915}"/>
+  <xr:revisionPtr revIDLastSave="1256" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A4C4F7C-4A12-6546-B0B7-1ABE4D71473D}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="3" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="3" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="LO1" sheetId="6" r:id="rId1"/>
     <sheet name="LO2" sheetId="1" r:id="rId2"/>
     <sheet name="LO1-2 Review" sheetId="3" r:id="rId3"/>
     <sheet name="LO3" sheetId="4" r:id="rId4"/>
-    <sheet name="LO7" sheetId="11" r:id="rId5"/>
-    <sheet name="L04" sheetId="12" r:id="rId6"/>
+    <sheet name="L04" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="99">
   <si>
     <t>S</t>
   </si>
@@ -259,76 +258,85 @@
     <t>Net Income Using TR&amp;TC</t>
   </si>
   <si>
+    <t>CR = (UCM / S) * 100%</t>
+  </si>
+  <si>
+    <t>CR = ((TR - TVC) / TR) * 100%</t>
+  </si>
+  <si>
+    <t>TCM = TR - TVC</t>
+  </si>
+  <si>
+    <t>UCM = S - UVC</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>UCM</t>
+  </si>
+  <si>
+    <t>Chapter 3_1</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>NI = n(UCM) - TFC</t>
+  </si>
+  <si>
+    <t>TR*CR = TR-TVC</t>
+  </si>
+  <si>
+    <t>n = TFC / UCM</t>
+  </si>
+  <si>
+    <t>Break-Even Analysis in Unit</t>
+  </si>
+  <si>
+    <t>Break-Even Analysis in Dollars</t>
+  </si>
+  <si>
+    <t>TR = TFC / CR</t>
+  </si>
+  <si>
+    <t>NI = n*S-(TFC+TVC)</t>
+  </si>
+  <si>
+    <t>Return on Investment (ROI)</t>
+  </si>
+  <si>
+    <t>Annuallized ROI = (1+ROI)^(1/yr) - 1</t>
+  </si>
+  <si>
+    <t>Contribution Margin</t>
+  </si>
+  <si>
+    <t>0 = n*S - (TFC + n*(UVC))</t>
+  </si>
+  <si>
+    <t>0 = n(UCM) - TFC</t>
+  </si>
+  <si>
+    <t>n = TFC / (S - UVC)</t>
+  </si>
+  <si>
     <t>NI = TR - TVC - TFC</t>
   </si>
   <si>
-    <t>CR = (UCM / S) * 100%</t>
-  </si>
-  <si>
-    <t>CR = ((TR - TVC) / TR) * 100%</t>
-  </si>
-  <si>
-    <t>TCM = TR - TVC</t>
-  </si>
-  <si>
-    <t>UCM = S - UVC</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>UCM</t>
-  </si>
-  <si>
-    <t>Chapter 3_1</t>
-  </si>
-  <si>
-    <t>P49</t>
-  </si>
-  <si>
-    <t>NI = n(UCM) - TFC</t>
-  </si>
-  <si>
-    <t>TR*CR = TR-TVC</t>
-  </si>
-  <si>
-    <t>O = n(UCM) - TFC</t>
-  </si>
-  <si>
-    <t>n = TFC / UCM</t>
-  </si>
-  <si>
-    <t>O = n*S - (TFC + n*(UVC))</t>
-  </si>
-  <si>
-    <t>Break-Even Analysis in Unit</t>
-  </si>
-  <si>
-    <t>Break-Even Analysis in Dollars</t>
-  </si>
-  <si>
-    <t>TR = TFC / CR</t>
-  </si>
-  <si>
-    <t>NI = n*S-(TFC+TVC)</t>
-  </si>
-  <si>
-    <t>Return on Investment (ROI)</t>
-  </si>
-  <si>
-    <t>Annuallized ROI = (1+ROI)^(1/yr) - 1</t>
-  </si>
-  <si>
-    <t>Trend of a Time Series</t>
-  </si>
-  <si>
-    <t>Seasonality</t>
-  </si>
-  <si>
-    <t>Contribution Margin</t>
+    <t>Net income changes by</t>
+  </si>
+  <si>
+    <t>NI = TR - TVC</t>
+  </si>
+  <si>
+    <t>Break-even point in dollar</t>
+  </si>
+  <si>
+    <t>TR = n * S</t>
   </si>
 </sst>
 </file>
@@ -338,7 +346,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -366,8 +374,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +412,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -412,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -423,6 +449,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2918,25 +2947,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9271A999-3EE4-1A49-8821-5B7514BE5F5A}">
-  <dimension ref="A2:K59"/>
+  <dimension ref="A2:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -2950,7 +2982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>157+350+135+77.65+22.79+23.2</f>
         <v>765.64</v>
@@ -2969,7 +3001,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2989,32 +3021,44 @@
         <v>6.4300000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +3078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D17">
         <v>1000</v>
       </c>
@@ -3049,7 +3093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>25</v>
       </c>
@@ -3070,7 +3114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3098,7 +3142,7 @@
         <v>897.06999999999971</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -3120,7 +3164,7 @@
         <v>466.67000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>34</v>
       </c>
@@ -3128,369 +3172,807 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="5"/>
       <c r="E25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="S25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="5"/>
       <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="S26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="S27" t="s">
+        <v>96</v>
+      </c>
+      <c r="T27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="O28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>83</v>
-      </c>
       <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C30" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C32" s="10">
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <v>800</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>23000</v>
+      </c>
+      <c r="H32">
+        <f>C32-E32</f>
+        <v>44</v>
+      </c>
+      <c r="I32">
+        <f>D32*H32-G32</f>
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="10">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>225</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>2300</v>
+      </c>
+      <c r="H33">
+        <f>C33-E33</f>
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <f>D33*H33-G33</f>
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="10">
+        <f>10/100</f>
+        <v>0.1</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <f>3.5/100</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G34">
+        <v>1500</v>
+      </c>
+      <c r="H34">
+        <f>C34-E34</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I34">
+        <f>D34*H34-G34</f>
+        <v>-1493.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D35">
+        <v>25000</v>
+      </c>
+      <c r="E35">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G35">
+        <v>1500</v>
+      </c>
+      <c r="H35">
+        <f>C35-E35</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I35">
+        <f>D35*H35-G35</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C37" s="10">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>430</v>
+      </c>
+      <c r="E37">
+        <v>6.43</v>
+      </c>
+      <c r="F37">
+        <f>D37*E37</f>
+        <v>2764.9</v>
+      </c>
+      <c r="G37">
+        <v>638.03</v>
+      </c>
+      <c r="H37">
+        <f>C37-E37</f>
+        <v>3.5700000000000003</v>
+      </c>
+      <c r="I37">
+        <f>D37*H37-G37</f>
+        <v>897.07000000000016</v>
+      </c>
+      <c r="J37">
+        <f>C37*D37</f>
+        <v>4300</v>
+      </c>
+      <c r="K37">
+        <f>J37-F37-G37</f>
+        <v>897.06999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>2599.9899999999998</v>
+      </c>
+      <c r="H40">
+        <v>1390</v>
+      </c>
+      <c r="K40">
+        <f>(H40/C40)*100</f>
+        <v>53.461744083631089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>0.67</v>
+      </c>
+      <c r="H41">
+        <v>0.33</v>
+      </c>
+      <c r="K41">
+        <f>(H41/C41)*100</f>
+        <v>49.253731343283583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>60499.5</v>
+      </c>
+      <c r="J42">
+        <v>129999.5</v>
+      </c>
+      <c r="K42">
+        <f>((J42-F42)/J42)*100</f>
+        <v>53.461744083631089</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>1972</v>
+      </c>
+      <c r="J43">
+        <v>3886</v>
+      </c>
+      <c r="K43">
+        <f>((J43-F43)/J43)*100</f>
+        <v>49.253731343283583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f>J44-I44-G44</f>
+        <v>340000</v>
+      </c>
+      <c r="G44">
+        <v>322000</v>
+      </c>
+      <c r="I44">
+        <v>81000</v>
+      </c>
+      <c r="J44">
+        <v>743000</v>
+      </c>
+      <c r="K44">
+        <f>((J44-F44)/J44)*100</f>
+        <v>54.239569313593542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>3200000</v>
+      </c>
+      <c r="G45">
+        <v>2000000</v>
+      </c>
+      <c r="I45">
+        <v>800000</v>
+      </c>
+      <c r="J45">
+        <v>6000000</v>
+      </c>
+      <c r="K45">
+        <f>((J45-F45)/J45)*100</f>
+        <v>46.666666666666664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
         <v>20</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E47" t="s">
         <v>18</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F47" t="s">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
         <v>77</v>
       </c>
-      <c r="H32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="K47" t="s">
         <v>78</v>
-      </c>
-      <c r="K32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <v>5000</v>
-      </c>
-      <c r="D33">
-        <v>6600</v>
-      </c>
-      <c r="E33" s="6">
-        <f>D33/H33</f>
-        <v>5.5</v>
-      </c>
-      <c r="F33">
-        <v>13</v>
-      </c>
-      <c r="G33" s="6">
-        <f>H33*F33</f>
-        <v>15600</v>
-      </c>
-      <c r="H33" s="6">
-        <f>(I33+C33)/K33</f>
-        <v>1200</v>
-      </c>
-      <c r="I33">
-        <v>4000</v>
-      </c>
-      <c r="J33" s="6">
-        <f>(K33/F33)*1</f>
-        <v>0.57692307692307687</v>
-      </c>
-      <c r="K33">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C34">
-        <v>2000</v>
-      </c>
-      <c r="D34" s="7">
-        <f>E34*H34</f>
-        <v>5000</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>10000</v>
-      </c>
-      <c r="H34" s="7">
-        <f>G34/F34</f>
-        <v>1000</v>
-      </c>
-      <c r="I34" s="7">
-        <f>H34*K34-C34</f>
-        <v>3000</v>
-      </c>
-      <c r="J34" s="7">
-        <f>(K34/F34)*1</f>
-        <v>0.5</v>
-      </c>
-      <c r="K34" s="7">
-        <f>F34-E34</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C37" s="8">
-        <f>(H37*K37) - I37</f>
-        <v>21000</v>
-      </c>
-      <c r="D37" s="8">
-        <f>G37-I37-C37</f>
-        <v>39000</v>
-      </c>
-      <c r="E37" s="8">
-        <f>D37/H37</f>
-        <v>13</v>
-      </c>
-      <c r="F37" s="8">
-        <f>G37/H37</f>
-        <v>26</v>
-      </c>
-      <c r="G37">
-        <v>78000</v>
-      </c>
-      <c r="H37">
-        <v>3000</v>
-      </c>
-      <c r="I37">
-        <v>18000</v>
-      </c>
-      <c r="J37" s="8">
-        <f>(K37/F37)*1</f>
-        <v>0.5</v>
-      </c>
-      <c r="K37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C38" s="9"/>
-      <c r="D38">
-        <v>94050</v>
-      </c>
-      <c r="E38">
-        <v>75.239999999999995</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9">
-        <f>D38/E38</f>
-        <v>1250</v>
-      </c>
-      <c r="I38">
-        <v>-19500</v>
-      </c>
-      <c r="J38">
-        <v>0.38</v>
-      </c>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C41" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C46">
-        <v>3000</v>
-      </c>
-      <c r="E46">
-        <v>2.5</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <f>C46/K46</f>
-        <v>1200</v>
-      </c>
-      <c r="K46">
-        <f>F46-E46</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C47">
-        <v>5000</v>
-      </c>
-      <c r="E47">
-        <v>4.5</v>
-      </c>
-      <c r="F47">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="H47">
-        <f>C47/K47</f>
-        <v>917.43119266055055</v>
-      </c>
-      <c r="K47">
-        <f>F47-E47</f>
-        <v>5.4499999999999993</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>5000</v>
       </c>
-      <c r="E48">
+      <c r="D48">
+        <v>6600</v>
+      </c>
+      <c r="E48" s="6">
+        <f>F48-K48</f>
+        <v>5.5</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48" s="6">
+        <f>F48*H48</f>
+        <v>15600</v>
+      </c>
+      <c r="H48" s="6">
+        <f>D48/E48</f>
+        <v>1200</v>
+      </c>
+      <c r="I48">
+        <v>4000</v>
+      </c>
+      <c r="J48" s="6">
+        <f>(K48/F48)*100</f>
+        <v>57.692307692307686</v>
+      </c>
+      <c r="K48">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="7">
+        <f>G49-(G49*J49/100)</f>
+        <v>5000</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>10000</v>
+      </c>
+      <c r="H49" s="7">
+        <f>D49/E49</f>
+        <v>1000</v>
+      </c>
+      <c r="I49" s="7">
+        <f>H49*K49-C49</f>
+        <v>3000</v>
+      </c>
+      <c r="J49" s="7">
+        <f>(K49/F49)*100</f>
+        <v>50</v>
+      </c>
+      <c r="K49" s="7">
+        <f>F49-E49</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C50" s="12">
+        <f>(H50*K50)-I50</f>
+        <v>6500</v>
+      </c>
+      <c r="D50" s="12">
+        <f>G50-I50-C50</f>
+        <v>39000</v>
+      </c>
+      <c r="E50" s="12">
+        <f>D50/H50</f>
+        <v>48.75</v>
+      </c>
+      <c r="F50">
+        <v>75</v>
+      </c>
+      <c r="G50">
+        <v>60000</v>
+      </c>
+      <c r="H50" s="12">
+        <f>G50/F50</f>
+        <v>800</v>
+      </c>
+      <c r="I50">
+        <v>14500</v>
+      </c>
+      <c r="J50">
+        <v>35</v>
+      </c>
+      <c r="K50" s="12">
+        <f>J50*F50/100</f>
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>18000</v>
+      </c>
+      <c r="D51">
+        <v>45000</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51">
+        <v>84600</v>
+      </c>
+      <c r="H51">
+        <v>1800</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52">
+        <v>78000</v>
+      </c>
+      <c r="H52">
+        <v>3000</v>
+      </c>
+      <c r="I52">
+        <v>18000</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C53" s="9"/>
+      <c r="D53">
+        <v>94050</v>
+      </c>
+      <c r="E53">
+        <v>75.239999999999995</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53">
+        <v>-19500</v>
+      </c>
+      <c r="J53">
+        <v>38</v>
+      </c>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C56" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="O59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="O60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>400</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <f>C62/(F62-E62)</f>
+        <v>10</v>
+      </c>
+      <c r="O62" t="s">
+        <v>98</v>
+      </c>
+      <c r="P62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <f>(F63-E63)*H63</f>
+        <v>300000</v>
+      </c>
+      <c r="E63">
+        <v>75</v>
+      </c>
+      <c r="F63">
+        <v>95</v>
+      </c>
+      <c r="H63">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>3000</v>
+      </c>
+      <c r="E64">
+        <v>2.5</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <f>C64/(F64-E64)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>5000</v>
+      </c>
+      <c r="E65">
         <v>4.5</v>
       </c>
-      <c r="F48">
+      <c r="F65">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H65">
+        <f>C65/(F65-E65)</f>
+        <v>917.43119266055055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F66">
         <v>8.9499999999999993</v>
       </c>
-      <c r="H48">
-        <f>C48/K48</f>
+      <c r="H66">
+        <f>C65/(F66-E65)</f>
         <v>1123.5955056179778</v>
       </c>
-      <c r="K48">
-        <f>F48-E48</f>
-        <v>4.4499999999999993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C51" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>6000</v>
+      </c>
+      <c r="E67">
+        <v>4.5</v>
+      </c>
+      <c r="F67">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H67">
+        <f>C67/(F67-E67)</f>
+        <v>1100.9174311926606</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>6000</v>
+      </c>
+      <c r="E68">
+        <v>4.5</v>
+      </c>
+      <c r="F68">
+        <f>(C68/H68)+E68</f>
+        <v>11.035947712418301</v>
+      </c>
+      <c r="H68">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C71" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="O72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
         <v>21</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D74" t="s">
         <v>20</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E74" t="s">
         <v>18</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F74" t="s">
         <v>0</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H74" t="s">
         <v>24</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I74" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C55">
+      <c r="J74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>420000</v>
+      </c>
+      <c r="H75">
+        <f>C75/J75</f>
+        <v>1200000</v>
+      </c>
+      <c r="J75">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <f>H76*J76</f>
+        <v>91125</v>
+      </c>
+      <c r="H76">
+        <v>202500</v>
+      </c>
+      <c r="J76">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>1800000</v>
+      </c>
+      <c r="H77">
+        <v>360000</v>
+      </c>
+      <c r="J77">
+        <f>C77/H77</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C78">
         <f>865+135+500</f>
         <v>1500</v>
       </c>
-      <c r="D55">
-        <f>E55*H55</f>
+      <c r="D78">
+        <f>E78*H78</f>
         <v>3000</v>
       </c>
-      <c r="E55">
+      <c r="E78">
         <v>10</v>
       </c>
-      <c r="F55">
-        <f>(C55+D55+I55)/H55</f>
+      <c r="F78">
+        <f>(C78+D78+I78)/H78</f>
         <v>25</v>
       </c>
-      <c r="H55">
+      <c r="H78">
         <v>300</v>
       </c>
-      <c r="I55">
+      <c r="I78">
         <v>3000</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C58" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>92</v>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C81" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="O82" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3500,31 +3982,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA996D-A764-1B4D-974B-C65FDC8E7FD1}">
-  <dimension ref="C2:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D22418-BE1C-7E42-B148-9DFF26F1B105}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Fall-Semester/ANLT600/Formulas.xlsx
+++ b/Fall-Semester/ANLT600/Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1256" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A4C4F7C-4A12-6546-B0B7-1ABE4D71473D}"/>
+  <xr:revisionPtr revIDLastSave="1394" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87FC69D2-5138-2D45-919D-D95EA0ADCDDA}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="3" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="5" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="LO1" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="LO1-2 Review" sheetId="3" r:id="rId3"/>
     <sheet name="LO3" sheetId="4" r:id="rId4"/>
     <sheet name="L04" sheetId="12" r:id="rId5"/>
+    <sheet name="LO5" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="125">
   <si>
     <t>S</t>
   </si>
@@ -337,6 +338,84 @@
   </si>
   <si>
     <t>TR = n * S</t>
+  </si>
+  <si>
+    <t>ppt4</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>Class Mid pt</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>Weight (gr)</t>
+  </si>
+  <si>
+    <t>218-222</t>
+  </si>
+  <si>
+    <t>222-226</t>
+  </si>
+  <si>
+    <t>226-230</t>
+  </si>
+  <si>
+    <t>230-234</t>
+  </si>
+  <si>
+    <t>234-238</t>
+  </si>
+  <si>
+    <t>238-242</t>
+  </si>
+  <si>
+    <t>p36</t>
+  </si>
+  <si>
+    <t># of items</t>
+  </si>
+  <si>
+    <t>P98</t>
+  </si>
+  <si>
+    <t>Sum(x+y) = Sum(x) + Sum(y)</t>
+  </si>
+  <si>
+    <t>Sum(K*x) = K * Sum(x)</t>
+  </si>
+  <si>
+    <t>Sum(x)^2</t>
+  </si>
+  <si>
+    <t>Sum(x^2)</t>
+  </si>
+  <si>
+    <t>n*Sum(x^2)</t>
+  </si>
+  <si>
+    <t>n*Sum(x^2) - Sum(x)^2</t>
+  </si>
+  <si>
+    <t>n(n-1)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Raw Dataset</t>
   </si>
 </sst>
 </file>
@@ -468,6 +547,159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE74CD3-BB7B-90A0-8CB8-5734C09ADF41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8128000" y="3594100"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>181340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>181700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93720</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D77FC5-25D9-6412-42A6-91AEBB1803CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4308840" y="1312560"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D77FC5-25D9-6412-42A6-91AEBB1803CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4302720" y="1306440"/>
+              <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-24T16:35:00.634"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#004F8B"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2949,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9271A999-3EE4-1A49-8821-5B7514BE5F5A}">
   <dimension ref="A2:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="Q69" sqref="Q69"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3983,12 +4215,449 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D22418-BE1C-7E42-B148-9DFF26F1B105}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <f>D5/$D$11</f>
+        <v>0.24</v>
+      </c>
+      <c r="F5">
+        <v>220</v>
+      </c>
+      <c r="G5">
+        <f>D5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E10" si="0">D6/$D$11</f>
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>224</v>
+      </c>
+      <c r="G6">
+        <f>G5+D6</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>228</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G10" si="1">G6+D7</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="F8">
+        <v>232</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>236</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="F10">
+        <v>240</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f>SUM(D5:D10)</f>
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E5:E10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <f>D14/$D$20</f>
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <f>D14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E19" si="2">D15/$D$20</f>
+        <v>0.24</v>
+      </c>
+      <c r="G15">
+        <f>G14+D15</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G19" si="3">G15+D16</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f>SUM(D14:D19)</f>
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E14:E19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F40592-273E-C140-8C39-2F0C247FBDA1}">
+  <dimension ref="A3:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>3^2 + 2^2 + 6^2 + 7^2 + 5^2 + 0^2</f>
+        <v>123</v>
+      </c>
+      <c r="D10">
+        <f>(3+2+6+7+5+0)^2</f>
+        <v>529</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <f>E10*C10</f>
+        <v>738</v>
+      </c>
+      <c r="G10">
+        <f>F10-D10</f>
+        <v>209</v>
+      </c>
+      <c r="H10">
+        <f>E10*(6-1)</f>
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <f>G10/H10</f>
+        <v>6.9666666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Fall-Semester/ANLT600/Formulas.xlsx
+++ b/Fall-Semester/ANLT600/Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9dc2046ad84b81/Documents/SaskPolytech/SaskPolytech-AIDA-2425/Fall-Semester/ANLT600/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1394" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87FC69D2-5138-2D45-919D-D95EA0ADCDDA}"/>
+  <xr:revisionPtr revIDLastSave="1581" documentId="8_{169A1F09-F5D1-0F4D-A8EE-4EC3878C25F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{353D1A2C-54B3-4048-9C91-095FCA257312}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="5" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="27500" windowHeight="17500" activeTab="6" xr2:uid="{CDC10488-EA6D-B84A-8228-A1D2BAF6B0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="LO1" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="LO3" sheetId="4" r:id="rId4"/>
     <sheet name="L04" sheetId="12" r:id="rId5"/>
     <sheet name="LO5" sheetId="13" r:id="rId6"/>
+    <sheet name="LO6" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="156">
   <si>
     <t>S</t>
   </si>
@@ -416,14 +417,109 @@
   </si>
   <si>
     <t>Raw Dataset</t>
+  </si>
+  <si>
+    <t>Sum(x)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Population Variance</t>
+  </si>
+  <si>
+    <t>m = Sum(x) / N</t>
+  </si>
+  <si>
+    <t>x-m</t>
+  </si>
+  <si>
+    <t>Population Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sqrt(variance)</t>
+  </si>
+  <si>
+    <t>Power(x-m)</t>
+  </si>
+  <si>
+    <t>Sum(Power(x-m)) / N</t>
+  </si>
+  <si>
+    <t>&amp; Standard Deviation</t>
+  </si>
+  <si>
+    <t>and Standard Deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deviation, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variance, </t>
+  </si>
+  <si>
+    <t>ppt2</t>
+  </si>
+  <si>
+    <t>P126</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>y^2</t>
+  </si>
+  <si>
+    <t>x*y</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>n*Sum(x*y)</t>
+  </si>
+  <si>
+    <t>n*Sum(x*y) - Sum(x)*Sum(y)</t>
+  </si>
+  <si>
+    <t>Sum(x)*Sum(y)</t>
+  </si>
+  <si>
+    <t>n*Sum(y^2)</t>
+  </si>
+  <si>
+    <t>n*Sum(y^2) - Sum(y)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>r^2</t>
+  </si>
+  <si>
+    <t>m = ( n*Sum(x*y) - Sum(x)*Sum(y) ) / ( n*Sum(x^2) - Sum(x)^2 )</t>
+  </si>
+  <si>
+    <t>Sqrt( n*Sum(x^2) - Sum(x)^2 )</t>
+  </si>
+  <si>
+    <t>Sqrt( n*Sum(y^2) - Sum(y)^2 )</t>
+  </si>
+  <si>
+    <t>r = ( n*Sum(x*y) - Sum(x)*Sum(y) ) / ( Sqrt( n*Sum(x^2) - Sum(x)^2 ) * Sqrt( n*Sum(y^2) - Sum(y)^2 ) )</t>
+  </si>
+  <si>
+    <t>Sqrt( n*Sum(x^2) - Sum(x)^2 ) * Sqrt( n*Sum(y^2) - Sum(y)^2 )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -517,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -531,6 +627,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -619,8 +719,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>93720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
@@ -639,7 +739,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
@@ -3181,7 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9271A999-3EE4-1A49-8821-5B7514BE5F5A}">
   <dimension ref="A2:T82"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -4508,14 +4608,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F40592-273E-C140-8C39-2F0C247FBDA1}">
-  <dimension ref="A3:I20"/>
+  <dimension ref="A3:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4656,8 +4759,671 @@
         <v>124</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <f>B40-$B$52</f>
+        <v>-0.5</v>
+      </c>
+      <c r="D40">
+        <f>POWER(C40, 2)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:C49" si="0">B41-$B$52</f>
+        <v>-3.5</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:D49" si="1">POWER(C41, 2)</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>-4.5</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>42</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50">
+        <f>SUM(B40:B49)</f>
+        <v>415</v>
+      </c>
+      <c r="D50">
+        <f>SUM(D40:D49)</f>
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="13">
+        <f>D50/B51</f>
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="14">
+        <f>SQRT(D53)</f>
+        <v>2.9748949561287032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58ACBE6A-E765-814D-8B64-3883DD7670A4}">
+  <dimension ref="B4:K44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>344</v>
+      </c>
+      <c r="G5">
+        <f>POWER(E5,2)</f>
+        <v>400</v>
+      </c>
+      <c r="H5">
+        <f>POWER(F5,2)</f>
+        <v>118336</v>
+      </c>
+      <c r="I5">
+        <f>E5*F5</f>
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>226</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G14" si="0">POWER(E6,2)</f>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H14" si="1">POWER(F6,2)</f>
+        <v>51076</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I14" si="2">E6*F6</f>
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>209</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>43681</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>408</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>166464</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>65.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>4290.25</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>185</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>34225</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>9.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>90.25</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>350</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>122500</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>2.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>270</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>72900</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E5:E14)</f>
+        <v>148</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:I15" si="3">SUM(F5:F14)</f>
+        <v>2069.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>3906</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="3"/>
+        <v>613568.75</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>44396.5</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <f>D5*I15</f>
+        <v>443965</v>
+      </c>
+      <c r="H18">
+        <f>D5*G15</f>
+        <v>39060</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <f>E15*F15</f>
+        <v>306286</v>
+      </c>
+      <c r="H20">
+        <f>H18-POWER(E15,2)</f>
+        <v>17156</v>
+      </c>
+      <c r="K20">
+        <f>SQRT(H20)</f>
+        <v>130.98091464026353</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <f>E18-E20</f>
+        <v>137679</v>
+      </c>
+      <c r="H22">
+        <f>D5*H15</f>
+        <v>6135687.5</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f>H22-POWER(F15,2)</f>
+        <v>1852857.25</v>
+      </c>
+      <c r="K24">
+        <f>SQRT(H24)</f>
+        <v>1361.1969916217124</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <f>K20*K24</f>
+        <v>178290.82696818703</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D30" s="15">
+        <f>E22/K27</f>
+        <v>0.77221583600914301</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f>POWER(D30,2)</f>
+        <v>0.59631729738329964</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <f>D5*I15</f>
+        <v>443965</v>
+      </c>
+      <c r="H37">
+        <f>D5*G15</f>
+        <v>39060</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <f>E15*F15</f>
+        <v>306286</v>
+      </c>
+      <c r="H39">
+        <f>H37-POWER(E15,2)</f>
+        <v>17156</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <f>E37-E39</f>
+        <v>137679</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F44" s="2">
+        <f>E41/H39</f>
+        <v>8.0251224061552815</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>